--- a/biology/Botanique/Zea_perennis/Zea_perennis.xlsx
+++ b/biology/Botanique/Zea_perennis/Zea_perennis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zea perennis  est une plante tropicale herbacée vivace de la famille des Poacées. Cette téosinte est endémique aux États-Unis.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aire très restreinte à une altitude de 1 500-2 000 m sur le flanc nord du volcan de Colima dans l'État de Jalisco au Mexique.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">1,5-2 m de haut
 D'une morphologie assez semblable à perennis, il peut en être distingué par les panicules mâles érigés et seulement au nombre de 2 à 8 et par ces rhizomes qui ne sont jamais tubérisés.
@@ -576,7 +592,9 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est la seule espèce du genre Zea qui soit naturellement tétraploïde (2n=4x=40).
 De récentes analyses montrent que cette espèce et diploperennis ont toutes deux des gènes du groupe Zea mays ce qui montrerait une divergence assez récente.
@@ -609,7 +627,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe une variété d'ornement à feuilles panachées.
 </t>
